--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="학생성적정보" sheetId="5" r:id="rId1"/>
@@ -1793,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -1825,23 +1825,23 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1850,23 +1850,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1875,23 +1875,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1900,23 +1900,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1925,23 +1925,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
-      </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,23 +1950,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1975,23 +1975,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,11 +2000,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
@@ -2012,11 +2012,11 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2025,23 +2025,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2050,23 +2050,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2075,15 +2075,15 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2100,23 +2100,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
         <v>89</v>
       </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
-      </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2125,23 +2125,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>95</v>
-      </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,23 +2150,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2175,23 +2175,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,23 +2200,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2225,23 +2225,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2250,23 +2250,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2275,23 +2275,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2300,23 +2300,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
-      </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2325,23 +2325,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2350,23 +2350,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2375,23 +2375,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2400,23 +2400,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2425,23 +2425,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2450,23 +2450,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2475,23 +2475,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,23 +2500,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2525,23 +2525,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2550,23 +2550,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2575,23 +2575,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,23 +2600,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2625,23 +2625,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2650,23 +2650,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2675,23 +2675,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,23 +2700,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2725,23 +2725,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2750,23 +2750,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2775,23 +2775,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2800,23 +2800,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="3"/>
         <v>89</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="3"/>
-        <v>96</v>
-      </c>
-      <c r="D41">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2825,15 +2825,15 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2850,23 +2850,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="3"/>
         <v>96</v>
       </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
-      </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2875,23 +2875,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,23 +2900,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2925,23 +2925,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2950,23 +2950,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2975,23 +2975,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3000,23 +3000,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,23 +3025,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3050,23 +3050,23 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3075,23 +3075,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,23 +3100,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3125,23 +3125,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3150,23 +3150,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3175,23 +3175,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,23 +3200,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3225,23 +3225,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
@@ -3283,15 +3283,15 @@
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3300,23 +3300,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3325,23 +3325,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3350,23 +3350,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3375,23 +3375,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3400,11 +3400,11 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
@@ -3412,11 +3412,11 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3425,23 +3425,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3450,23 +3450,23 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:F82" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3475,15 +3475,15 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3500,23 +3500,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3525,23 +3525,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3550,23 +3550,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
         <v>71</v>
       </c>
-      <c r="D71">
-        <f t="shared" ca="1" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ca="1" si="5"/>
-        <v>62</v>
-      </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3575,23 +3575,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3600,23 +3600,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3625,19 +3625,19 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
@@ -3650,23 +3650,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3675,23 +3675,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3700,23 +3700,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3725,23 +3725,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3750,23 +3750,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3775,23 +3775,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3800,23 +3800,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3825,23 +3825,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="5"/>
         <v>74</v>
       </c>
-      <c r="D82">
-        <f t="shared" ca="1" si="5"/>
-        <v>61</v>
-      </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
         <v>51</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3850,23 +3850,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="6"/>
         <v>92</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="6"/>
-        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3875,23 +3875,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3900,23 +3900,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3925,23 +3925,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3950,23 +3950,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3975,23 +3975,23 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -4000,23 +4000,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4025,23 +4025,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4050,23 +4050,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4075,23 +4075,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4100,23 +4100,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4125,23 +4125,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4150,23 +4150,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4175,23 +4175,23 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4200,23 +4200,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4225,23 +4225,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4250,23 +4250,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4275,23 +4275,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4300,23 +4300,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-8297-3342</v>
+        <v>010-0506-4974</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>398</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -4457,7 +4457,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>47</v>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>47</v>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>47</v>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>47</v>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>4</v>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>38</v>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>38</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>47</v>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>38</v>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>47</v>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
@@ -5882,7 +5882,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>38</v>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5957,7 +5957,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>47</v>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -6107,7 +6107,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>47</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>38</v>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>47</v>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>38</v>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>38</v>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>47</v>
@@ -6382,7 +6382,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>47</v>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>38</v>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>38</v>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
@@ -6732,7 +6732,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6878,8 +6878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-382-6806</v>
+        <v>062-731-0293</v>
       </c>
       <c r="F2" t="s">
         <v>444</v>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-661-7545</v>
+        <v>062-914-8090</v>
       </c>
       <c r="F3" t="s">
         <v>440</v>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-537-1724</v>
+        <v>062-425-4606</v>
       </c>
       <c r="F4" t="s">
         <v>441</v>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-862-9263</v>
+        <v>062-902-9048</v>
       </c>
       <c r="F5" t="s">
         <v>442</v>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-552-1576</v>
+        <v>062-760-7894</v>
       </c>
       <c r="F6" t="s">
         <v>443</v>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="학생성적정보" sheetId="5" r:id="rId1"/>
     <sheet name="학생정보" sheetId="3" r:id="rId2"/>
     <sheet name="학과정보" sheetId="6" r:id="rId3"/>
+    <sheet name="1111111" sheetId="7" r:id="rId4"/>
+    <sheet name="2222222" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="445">
   <si>
     <t>국어국문</t>
   </si>
@@ -1794,7 +1796,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1825,15 +1827,15 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F21" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -1841,7 +1843,7 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1850,23 +1852,23 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B18" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1875,23 +1877,23 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1900,23 +1902,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1925,23 +1927,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,23 +1952,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1975,23 +1977,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,23 +2002,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2025,23 +2027,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2050,23 +2052,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2075,23 +2077,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2100,23 +2102,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2125,23 +2127,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
         <v>54</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,23 +2152,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
         <v>86</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2175,23 +2177,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,23 +2202,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2225,23 +2227,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
         <v>63</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2250,23 +2252,23 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F34" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
         <v>85</v>
       </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>99</v>
-      </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2275,23 +2277,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2300,23 +2302,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2325,23 +2327,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2350,23 +2352,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2375,23 +2377,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2400,23 +2402,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2425,23 +2427,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2450,23 +2452,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2475,23 +2477,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,23 +2502,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2525,23 +2527,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2550,23 +2552,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2575,23 +2577,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,19 +2602,19 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
@@ -2625,23 +2627,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2650,23 +2652,23 @@
       </c>
       <c r="B35">
         <f t="shared" ref="B35:F50" ca="1" si="3">RANDBETWEEN(50,100)</f>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2675,23 +2677,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,23 +2702,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2725,23 +2727,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2750,23 +2752,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2775,23 +2777,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2800,23 +2802,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2825,23 +2827,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2850,23 +2852,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2875,23 +2877,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,23 +2902,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2925,23 +2927,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2950,23 +2952,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2975,23 +2977,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3000,23 +3002,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,23 +3027,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3050,23 +3052,23 @@
       </c>
       <c r="B51">
         <f t="shared" ref="B51:F66" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3075,23 +3077,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,23 +3102,23 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3125,23 +3127,23 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3150,23 +3152,23 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3175,23 +3177,23 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,23 +3202,23 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3225,23 +3227,23 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3250,23 +3252,23 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3275,19 +3277,19 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="4"/>
@@ -3300,23 +3302,23 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3325,23 +3327,23 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3350,23 +3352,23 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3375,23 +3377,23 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3400,23 +3402,23 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3425,23 +3427,23 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3454,19 +3456,19 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3475,23 +3477,23 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3500,23 +3502,23 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3525,23 +3527,23 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3550,23 +3552,23 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3575,23 +3577,23 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3600,23 +3602,23 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3625,23 +3627,23 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3650,23 +3652,23 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3675,23 +3677,23 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3700,23 +3702,23 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3725,23 +3727,23 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3750,23 +3752,23 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3775,23 +3777,23 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3800,23 +3802,23 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3825,23 +3827,23 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3850,23 +3852,23 @@
       </c>
       <c r="B83">
         <f t="shared" ref="B83:F98" ca="1" si="6">RANDBETWEEN(50,100)</f>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3875,23 +3877,23 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3900,23 +3902,23 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3925,23 +3927,23 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3950,23 +3952,23 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3979,19 +3981,19 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -4000,23 +4002,23 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4025,23 +4027,23 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4050,23 +4052,23 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4075,23 +4077,23 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4100,23 +4102,23 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4125,23 +4127,23 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4150,23 +4152,23 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4175,19 +4177,19 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="6"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
@@ -4200,23 +4202,23 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4225,23 +4227,23 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4250,23 +4252,23 @@
       </c>
       <c r="B99">
         <f t="shared" ref="B99:F101" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4275,23 +4277,23 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4300,23 +4302,23 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4375,14 +4377,14 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
-        <v>010-0506-4974</v>
+        <v>010-8944-9447</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>398</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -4407,7 +4409,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -4432,7 +4434,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -4457,7 +4459,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -4482,7 +4484,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -4507,7 +4509,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -4532,7 +4534,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
@@ -4557,7 +4559,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>47</v>
@@ -4582,7 +4584,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -4607,7 +4609,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -4632,7 +4634,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -4657,7 +4659,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -4707,7 +4709,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4732,7 +4734,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>47</v>
@@ -4782,7 +4784,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>47</v>
@@ -4807,7 +4809,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -4832,7 +4834,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -4857,7 +4859,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -4882,7 +4884,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>47</v>
@@ -4932,7 +4934,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -4957,7 +4959,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>47</v>
@@ -4982,7 +4984,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
@@ -5007,7 +5009,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -5057,7 +5059,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -5082,7 +5084,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
@@ -5132,7 +5134,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -5157,7 +5159,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -5182,7 +5184,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -5207,7 +5209,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>47</v>
@@ -5232,7 +5234,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -5257,7 +5259,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -5307,7 +5309,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -5332,7 +5334,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
@@ -5357,7 +5359,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>38</v>
@@ -5382,7 +5384,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -5407,7 +5409,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -5457,7 +5459,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -5482,7 +5484,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>38</v>
@@ -5532,7 +5534,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" t="s">
         <v>38</v>
@@ -5557,7 +5559,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
@@ -5582,7 +5584,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -5607,7 +5609,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -5657,7 +5659,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -5682,7 +5684,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>38</v>
@@ -5757,7 +5759,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>47</v>
@@ -5807,7 +5809,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>38</v>
@@ -5832,7 +5834,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>4</v>
@@ -5857,7 +5859,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5882,7 +5884,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>38</v>
@@ -5907,7 +5909,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
@@ -5982,7 +5984,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
@@ -6007,7 +6009,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>47</v>
@@ -6032,7 +6034,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -6057,7 +6059,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -6107,7 +6109,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71" t="s">
         <v>47</v>
@@ -6132,7 +6134,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>38</v>
@@ -6157,7 +6159,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>47</v>
@@ -6182,7 +6184,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -6207,7 +6209,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
@@ -6232,7 +6234,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>38</v>
@@ -6257,7 +6259,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>38</v>
@@ -6307,7 +6309,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
         <v>47</v>
@@ -6332,7 +6334,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>47</v>
@@ -6357,7 +6359,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>38</v>
@@ -6382,7 +6384,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>38</v>
@@ -6407,7 +6409,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>38</v>
@@ -6432,7 +6434,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -6457,7 +6459,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>47</v>
@@ -6507,7 +6509,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -6557,7 +6559,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>47</v>
@@ -6582,7 +6584,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>47</v>
@@ -6607,7 +6609,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -6657,7 +6659,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -6682,7 +6684,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -6707,7 +6709,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
@@ -6732,7 +6734,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -6757,7 +6759,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -6807,7 +6809,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -6832,7 +6834,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>4</v>
@@ -6857,7 +6859,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6878,7 +6880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -6923,7 +6925,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-731-0293</v>
+        <v>062-955-9061</v>
       </c>
       <c r="F2" t="s">
         <v>444</v>
@@ -6944,7 +6946,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp;TEXT(RANDBETWEEN(3333333,9999999),"-000-0000")</f>
-        <v>062-914-8090</v>
+        <v>062-431-1160</v>
       </c>
       <c r="F3" t="s">
         <v>440</v>
@@ -6965,7 +6967,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-425-4606</v>
+        <v>062-386-4000</v>
       </c>
       <c r="F4" t="s">
         <v>441</v>
@@ -6986,7 +6988,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-902-9048</v>
+        <v>062-696-4973</v>
       </c>
       <c r="F5" t="s">
         <v>442</v>
@@ -7007,7 +7009,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-760-7894</v>
+        <v>062-799-9281</v>
       </c>
       <c r="F6" t="s">
         <v>443</v>
@@ -7020,4 +7022,3078 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" t="str">
+        <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,99999999),"-0000-0000")</f>
+        <v>010-7987-6137</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" t="s">
+        <v>283</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" t="s">
+        <v>272</v>
+      </c>
+      <c r="C34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C92" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>407</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(B10,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(B13,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(B14,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(B15,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(B16,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(B17,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(B18,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(B19,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(B20,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(B21,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(B22,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(B23,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP(B24,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP(B25,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP(B26,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP(B27,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(B28,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="str">
+        <f>VLOOKUP(B29,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="str">
+        <f>VLOOKUP(B30,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="str">
+        <f>VLOOKUP(B31,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <f>VLOOKUP(B32,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="str">
+        <f>VLOOKUP(B33,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f>VLOOKUP(B34,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP(B35,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="str">
+        <f>VLOOKUP(B36,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f>VLOOKUP(B37,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="str">
+        <f>VLOOKUP(B38,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(B39,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP(B40,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="str">
+        <f>VLOOKUP(B41,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="str">
+        <f>VLOOKUP(B42,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <f>VLOOKUP(B43,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="str">
+        <f>VLOOKUP(B44,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="str">
+        <f>VLOOKUP(B45,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="str">
+        <f>VLOOKUP(B46,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="str">
+        <f>VLOOKUP(B47,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="str">
+        <f>VLOOKUP(B48,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="str">
+        <f>VLOOKUP(B49,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="str">
+        <f>VLOOKUP(B50,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="str">
+        <f>VLOOKUP(B51,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" t="str">
+        <f>VLOOKUP(B52,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="str">
+        <f>VLOOKUP(B53,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="str">
+        <f>VLOOKUP(B54,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP(B55,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="str">
+        <f>VLOOKUP(B56,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="str">
+        <f>VLOOKUP(B57,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="str">
+        <f>VLOOKUP(B58,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="str">
+        <f>VLOOKUP(B59,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="str">
+        <f>VLOOKUP(B60,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP(B61,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="str">
+        <f>VLOOKUP(B62,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="str">
+        <f>VLOOKUP(B63,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="str">
+        <f>VLOOKUP(B64,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" t="str">
+        <f>VLOOKUP(B65,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="str">
+        <f>VLOOKUP(B66,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" t="str">
+        <f>VLOOKUP(B67,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="str">
+        <f>VLOOKUP(B68,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="str">
+        <f>VLOOKUP(B69,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="str">
+        <f>VLOOKUP(B70,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="str">
+        <f>VLOOKUP(B71,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" t="str">
+        <f>VLOOKUP(B72,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" t="str">
+        <f>VLOOKUP(B73,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="str">
+        <f>VLOOKUP(B74,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="str">
+        <f>VLOOKUP(B75,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" t="str">
+        <f>VLOOKUP(B76,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="str">
+        <f>VLOOKUP(B77,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="str">
+        <f>VLOOKUP(B78,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" t="str">
+        <f>VLOOKUP(B79,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="str">
+        <f>VLOOKUP(B80,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" t="str">
+        <f>VLOOKUP(B81,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" t="str">
+        <f>VLOOKUP(B82,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="str">
+        <f>VLOOKUP(B83,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="str">
+        <f>VLOOKUP(B84,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="str">
+        <f>VLOOKUP(B85,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" t="str">
+        <f>VLOOKUP(B86,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="str">
+        <f>VLOOKUP(B87,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="str">
+        <f>VLOOKUP(B88,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" t="str">
+        <f>VLOOKUP(B89,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" t="str">
+        <f>VLOOKUP(B90,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="str">
+        <f>VLOOKUP(B91,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" t="str">
+        <f>VLOOKUP(B92,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="str">
+        <f>VLOOKUP(B93,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="str">
+        <f>VLOOKUP(B94,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="str">
+        <f>VLOOKUP(B95,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="str">
+        <f>VLOOKUP(B96,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="str">
+        <f>VLOOKUP(B97,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="str">
+        <f>VLOOKUP(B98,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="str">
+        <f>VLOOKUP(B99,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="str">
+        <f>VLOOKUP(B100,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="str">
+        <f>VLOOKUP(B101,학과정보!$A$2:$B$6,2,FALSE)</f>
+        <v>D002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>